--- a/generate_qr/config.xlsx
+++ b/generate_qr/config.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="27">
   <si>
     <t>端口</t>
   </si>
@@ -28,67 +28,73 @@
     <t>IP</t>
   </si>
   <si>
-    <t>biewaichuan</t>
+    <t>pw0001</t>
   </si>
   <si>
     <t>aes-256-cfb</t>
   </si>
   <si>
-    <t>149.248.35.216</t>
-  </si>
-  <si>
-    <t>temp</t>
-  </si>
-  <si>
-    <t>cctv</t>
-  </si>
-  <si>
-    <t>hehe</t>
-  </si>
-  <si>
-    <t>ngsa</t>
-  </si>
-  <si>
-    <t>scis</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>sixs</t>
-  </si>
-  <si>
-    <t>excu</t>
-  </si>
-  <si>
-    <t>stcu</t>
-  </si>
-  <si>
-    <t>ustc</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>nags</t>
-  </si>
-  <si>
-    <t>ding</t>
-  </si>
-  <si>
-    <t>diao</t>
-  </si>
-  <si>
-    <t>didi</t>
-  </si>
-  <si>
-    <t>hagong</t>
-  </si>
-  <si>
-    <t>yuge</t>
-  </si>
-  <si>
-    <t>echo</t>
+    <t>149.248.35.211</t>
+  </si>
+  <si>
+    <t>pw0002</t>
+  </si>
+  <si>
+    <t>pw0003</t>
+  </si>
+  <si>
+    <t>pw0004</t>
+  </si>
+  <si>
+    <t>pw0005</t>
+  </si>
+  <si>
+    <t>pw0006</t>
+  </si>
+  <si>
+    <t>pw0007</t>
+  </si>
+  <si>
+    <t>pw0008</t>
+  </si>
+  <si>
+    <t>pw0009</t>
+  </si>
+  <si>
+    <t>pw0010</t>
+  </si>
+  <si>
+    <t>pw0011</t>
+  </si>
+  <si>
+    <t>pw0012</t>
+  </si>
+  <si>
+    <t>pw0013</t>
+  </si>
+  <si>
+    <t>pw0014</t>
+  </si>
+  <si>
+    <t>pw0015</t>
+  </si>
+  <si>
+    <t>pw0016</t>
+  </si>
+  <si>
+    <t>pw0017</t>
+  </si>
+  <si>
+    <t>pw0018</t>
+  </si>
+  <si>
+    <t>pw0019</t>
+  </si>
+  <si>
+    <t>pw0020</t>
+  </si>
+  <si>
+    <t>pw0021</t>
   </si>
 </sst>
 </file>
@@ -96,10 +102,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -111,28 +117,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,7 +185,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,91 +194,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,6 +206,59 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -269,13 +275,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,13 +395,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,55 +407,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,91 +455,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,42 +488,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,7 +527,42 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,10 +589,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -595,133 +601,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1071,7 +1077,7 @@
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1098,7 +1104,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>7001</v>
+        <v>5000</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -1112,10 +1118,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>7002</v>
+        <v>5001</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
@@ -1126,10 +1132,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>7010</v>
+        <v>5002</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
@@ -1140,10 +1146,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>6661</v>
+        <v>5003</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>5</v>
@@ -1154,10 +1160,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>6662</v>
+        <v>5004</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>5</v>
@@ -1168,10 +1174,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>6663</v>
+        <v>5005</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>5</v>
@@ -1182,10 +1188,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>6664</v>
+        <v>5006</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>5</v>
@@ -1196,10 +1202,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>6665</v>
+        <v>5007</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>5</v>
@@ -1210,10 +1216,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>6666</v>
+        <v>5008</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>5</v>
@@ -1224,10 +1230,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>6667</v>
+        <v>5009</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>5</v>
@@ -1238,10 +1244,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>6669</v>
+        <v>5010</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>5</v>
@@ -1252,10 +1258,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>6670</v>
+        <v>5011</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>5</v>
@@ -1266,10 +1272,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>6671</v>
+        <v>5012</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>5</v>
@@ -1280,10 +1286,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>6672</v>
+        <v>5013</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>5</v>
@@ -1294,10 +1300,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>6673</v>
+        <v>5014</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>5</v>
@@ -1308,10 +1314,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>6674</v>
+        <v>5015</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>5</v>
@@ -1322,10 +1328,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>6675</v>
+        <v>5016</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>5</v>
@@ -1336,10 +1342,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>6676</v>
+        <v>5017</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>5</v>
@@ -1350,10 +1356,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>6677</v>
+        <v>5018</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>5</v>
@@ -1364,10 +1370,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>6678</v>
+        <v>5019</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>5</v>
@@ -1378,10 +1384,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>6679</v>
+        <v>5020</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>5</v>
